--- a/i_codebooks/D3_cohort_ImmDis.xlsx
+++ b/i_codebooks/D3_cohort_ImmDis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\Pipeline_template_CoMaSy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF8C805-99A2-49AC-B1F2-B91E940EED3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9F2DB-EF79-4E8E-93AC-64BF65421FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1220,11 +1220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F39" sqref="A35:F39"/>
     </sheetView>
   </sheetViews>
